--- a/biology/Médecine/ICF_syndrome/ICF_syndrome.xlsx
+++ b/biology/Médecine/ICF_syndrome/ICF_syndrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ICF syndrome (ICF est le sigle anglais de Immunodeficiency, Centromeric region instability, Facial anomalies, soit en français immuno-déficience combinée (I), instabilité de l'hétérochromatine paracentromérique (C) et dysmorphie faciale (F)) se caractérisant par une immunodéficience et des réarrangements caractéristiques au voisinage des centromères des chromosomes 1 et 16, et parfois 9.
@@ -516,9 +528,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Melanie Ehrlich, Kelly Jackson, Corry Weemaes « Immunodeficiency, centromeric region instability, facial anomalies syndrome » in Orphanet Journal of Rare Diseases 2006, 1:2 [1] DOI 10.1186/1750-1172-1-2
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Melanie Ehrlich, Kelly Jackson, Corry Weemaes « Immunodeficiency, centromeric region instability, facial anomalies syndrome » in Orphanet Journal of Rare Diseases 2006, 1:2  DOI 10.1186/1750-1172-1-2
  Portail de la médecine                     </t>
         </is>
       </c>
